--- a/contratos/contratos-6-2021.xlsx
+++ b/contratos/contratos-6-2021.xlsx
@@ -97,16 +97,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>2.710,00</t>
-  </si>
-  <si>
-    <t>23.576,88</t>
-  </si>
-  <si>
-    <t>31.435,84</t>
-  </si>
-  <si>
-    <t>316,00</t>
+    <t>2710.00</t>
+  </si>
+  <si>
+    <t>23576.88</t>
+  </si>
+  <si>
+    <t>31435.84</t>
+  </si>
+  <si>
+    <t>316.00</t>
   </si>
 </sst>
 </file>
